--- a/docs/Naceňovací dokument.xlsx
+++ b/docs/Naceňovací dokument.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29518"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AE27C5D-A7D5-4FC7-9156-AEDC9605EA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\fdolezal\fav\bp\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1907C38A-A0EB-44BB-BD60-45CE5CFD09F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nacenění" sheetId="5" r:id="rId1"/>
@@ -62,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="88">
   <si>
     <t>Celkem vývoj</t>
   </si>
@@ -320,13 +325,19 @@
   </si>
   <si>
     <t>Koeficient</t>
+  </si>
+  <si>
+    <t>Notion</t>
+  </si>
+  <si>
+    <t>https://google.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +358,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -378,10 +397,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -396,9 +416,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -752,13 +774,13 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="38.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -767,7 +789,7 @@
         <v>79.720000000000013</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -776,7 +798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -798,21 +820,21 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="65" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.5546875" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -835,7 +857,7 @@
       <c r="H1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -847,7 +869,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -859,7 +881,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -871,7 +893,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -883,7 +905,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -895,7 +917,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -904,7 +926,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -913,7 +935,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -922,7 +944,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -931,7 +953,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -943,7 +965,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -955,7 +977,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -967,7 +989,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -979,7 +1001,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -991,7 +1013,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1003,7 +1025,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1015,7 +1037,7 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1027,7 +1049,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1036,7 +1058,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1045,7 +1067,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1054,7 +1076,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1072,7 +1094,7 @@
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1081,7 +1103,7 @@
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -1093,7 +1115,7 @@
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -1105,220 +1127,220 @@
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="8:8">
+    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="8:8">
+    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="8:8">
+    <row r="35" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="8:8">
+    <row r="36" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="8:8">
+    <row r="37" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="8:8">
+    <row r="38" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="8:8">
+    <row r="39" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="8:8">
+    <row r="40" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="8:8">
+    <row r="41" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="8:8">
+    <row r="42" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="8:8">
+    <row r="43" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="8:8">
+    <row r="44" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="8:8">
+    <row r="45" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="8:8">
+    <row r="46" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="8:8">
+    <row r="47" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="8:8">
+    <row r="48" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="8:8">
+    <row r="49" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="8:8">
+    <row r="50" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="8:8">
+    <row r="51" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="8:8">
+    <row r="52" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="8:8">
+    <row r="53" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="8:8">
+    <row r="54" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="8:8">
+    <row r="55" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="8:8">
+    <row r="56" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="8:8">
+    <row r="57" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="8:8">
+    <row r="58" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="8:8">
+    <row r="59" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="8:8">
+    <row r="60" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="8:8">
+    <row r="61" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="8:8">
+    <row r="62" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="8:8">
+    <row r="63" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="8:8">
+    <row r="64" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="8:8">
+    <row r="65" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="8:8">
+    <row r="66" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="8:8">
+    <row r="67" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="8:8">
+    <row r="68" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="8:8">
+    <row r="69" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="8:8">
+    <row r="70" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="8:8">
+    <row r="71" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="8:8">
+    <row r="72" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="8:8">
+    <row r="73" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="8:8">
+    <row r="74" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="8:8">
+    <row r="75" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="8:8">
+    <row r="76" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="8:8">
+    <row r="77" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="8:8">
+    <row r="78" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="8:8">
+    <row r="79" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="8:8">
+    <row r="80" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="8:8">
+    <row r="81" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="8:8">
+    <row r="82" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="8:8">
+    <row r="83" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="8:8">
+    <row r="84" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="8:8">
+    <row r="85" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="8:8">
+    <row r="86" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="8:8">
+    <row r="87" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="8:8">
+    <row r="88" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="8:8">
+    <row r="89" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="8:8">
+    <row r="90" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="8:8">
+    <row r="91" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="8:8">
+    <row r="92" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="8:8">
+    <row r="93" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="8:8">
+    <row r="94" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="8:8">
+    <row r="95" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="8:8">
+    <row r="96" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="8:8">
+    <row r="97" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H97" s="1"/>
     </row>
   </sheetData>
@@ -1329,30 +1351,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EC0B5D-2517-409C-B26E-9C4965F8D745}">
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="76" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1"/>
-    <col min="12" max="12" width="31.5703125" customWidth="1"/>
-    <col min="13" max="13" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" customWidth="1"/>
+    <col min="12" max="12" width="31.5546875" customWidth="1"/>
+    <col min="13" max="13" width="25.6640625" customWidth="1"/>
+    <col min="14" max="14" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" customHeight="1">
+    <row r="1" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -1392,8 +1415,11 @@
       <c r="M1" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1431,8 +1457,11 @@
       <c r="K2" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1464,7 +1493,7 @@
         <v>13.24</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1495,7 +1524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -1526,7 +1555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1554,11 +1583,11 @@
         <v>21.184000000000001</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" ref="K3:K7" si="0">J6</f>
+        <f t="shared" ref="K6:K7" si="0">J6</f>
         <v>21.184000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -1590,7 +1619,7 @@
         <v>5.2960000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>60</v>
       </c>
@@ -1604,7 +1633,7 @@
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>60</v>
       </c>
@@ -1618,7 +1647,7 @@
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>60</v>
       </c>
@@ -1632,7 +1661,7 @@
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>60</v>
       </c>
@@ -1646,7 +1675,7 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>60</v>
       </c>
@@ -1660,7 +1689,7 @@
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>60</v>
       </c>
@@ -1674,7 +1703,7 @@
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>60</v>
       </c>
@@ -1688,7 +1717,7 @@
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>60</v>
       </c>
@@ -1702,7 +1731,7 @@
       </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>60</v>
       </c>
@@ -1716,7 +1745,7 @@
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="5:11">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>60</v>
       </c>
@@ -1730,7 +1759,7 @@
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="5:11">
+    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>60</v>
       </c>
@@ -1744,7 +1773,7 @@
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="5:11">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
         <v>60</v>
       </c>
@@ -1758,7 +1787,7 @@
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="5:11">
+    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>60</v>
       </c>
@@ -1772,7 +1801,7 @@
       </c>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="5:11">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>60</v>
       </c>
@@ -1786,7 +1815,7 @@
       </c>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="5:11">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>60</v>
       </c>
@@ -1800,7 +1829,7 @@
       </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="5:11">
+    <row r="23" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>60</v>
       </c>
@@ -1814,7 +1843,7 @@
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="5:11">
+    <row r="24" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>60</v>
       </c>
@@ -1828,7 +1857,7 @@
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="5:11">
+    <row r="25" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
         <v>60</v>
       </c>
@@ -1842,7 +1871,7 @@
       </c>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="5:11">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
         <v>60</v>
       </c>
@@ -1856,7 +1885,7 @@
       </c>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="5:11">
+    <row r="27" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
         <v>60</v>
       </c>
@@ -1870,7 +1899,7 @@
       </c>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="5:11">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
         <v>60</v>
       </c>
@@ -1884,7 +1913,7 @@
       </c>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="5:11">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
         <v>60</v>
       </c>
@@ -1898,7 +1927,7 @@
       </c>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="5:11">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
         <v>60</v>
       </c>
@@ -1912,7 +1941,7 @@
       </c>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="5:11">
+    <row r="31" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>60</v>
       </c>
@@ -1926,7 +1955,7 @@
       </c>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="5:11">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>60</v>
       </c>
@@ -1940,7 +1969,7 @@
       </c>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="5:11">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>60</v>
       </c>
@@ -1954,7 +1983,7 @@
       </c>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="5:11">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
         <v>60</v>
       </c>
@@ -1968,7 +1997,7 @@
       </c>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="5:11">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
         <v>60</v>
       </c>
@@ -1982,7 +2011,7 @@
       </c>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="5:11">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
         <v>60</v>
       </c>
@@ -1996,7 +2025,7 @@
       </c>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="5:11">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
         <v>60</v>
       </c>
@@ -2010,7 +2039,7 @@
       </c>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="5:11">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
         <v>60</v>
       </c>
@@ -2024,7 +2053,7 @@
       </c>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="5:11">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E39" t="s">
         <v>60</v>
       </c>
@@ -2038,7 +2067,7 @@
       </c>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="5:11">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
         <v>60</v>
       </c>
@@ -2052,7 +2081,7 @@
       </c>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="5:11">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E41" t="s">
         <v>60</v>
       </c>
@@ -2066,7 +2095,7 @@
       </c>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="5:11">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
         <v>60</v>
       </c>
@@ -2080,7 +2109,7 @@
       </c>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="5:11">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
         <v>60</v>
       </c>
@@ -2094,7 +2123,7 @@
       </c>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="5:11">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
         <v>60</v>
       </c>
@@ -2108,7 +2137,7 @@
       </c>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="5:11">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
         <v>60</v>
       </c>
@@ -2122,7 +2151,7 @@
       </c>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="5:11">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
         <v>60</v>
       </c>
@@ -2136,7 +2165,7 @@
       </c>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="5:11">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
         <v>60</v>
       </c>
@@ -2150,7 +2179,7 @@
       </c>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="5:11">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E48" t="s">
         <v>60</v>
       </c>
@@ -2164,7 +2193,7 @@
       </c>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="5:11">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E49" t="s">
         <v>60</v>
       </c>
@@ -2178,7 +2207,7 @@
       </c>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="5:11">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E50" t="s">
         <v>60</v>
       </c>
@@ -2192,7 +2221,7 @@
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="5:11">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E51" t="s">
         <v>60</v>
       </c>
@@ -2206,7 +2235,7 @@
       </c>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="5:11">
+    <row r="52" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E52" t="s">
         <v>60</v>
       </c>
@@ -2220,7 +2249,7 @@
       </c>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="5:11">
+    <row r="53" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E53" t="s">
         <v>60</v>
       </c>
@@ -2234,7 +2263,7 @@
       </c>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="5:11">
+    <row r="54" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E54" t="s">
         <v>60</v>
       </c>
@@ -2248,7 +2277,7 @@
       </c>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="5:11">
+    <row r="55" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E55" t="s">
         <v>60</v>
       </c>
@@ -2262,7 +2291,7 @@
       </c>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="5:11">
+    <row r="56" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E56" t="s">
         <v>60</v>
       </c>
@@ -2276,7 +2305,7 @@
       </c>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="5:11">
+    <row r="57" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E57" t="s">
         <v>60</v>
       </c>
@@ -2290,7 +2319,7 @@
       </c>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="5:11">
+    <row r="58" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E58" t="s">
         <v>60</v>
       </c>
@@ -2304,7 +2333,7 @@
       </c>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="5:11">
+    <row r="59" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E59" t="s">
         <v>60</v>
       </c>
@@ -2318,7 +2347,7 @@
       </c>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="5:11">
+    <row r="60" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
         <v>60</v>
       </c>
@@ -2332,7 +2361,7 @@
       </c>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="5:11">
+    <row r="61" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E61" t="s">
         <v>60</v>
       </c>
@@ -2346,7 +2375,7 @@
       </c>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="5:11">
+    <row r="62" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E62" t="s">
         <v>60</v>
       </c>
@@ -2360,7 +2389,7 @@
       </c>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="5:11">
+    <row r="63" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E63" t="s">
         <v>60</v>
       </c>
@@ -2374,7 +2403,7 @@
       </c>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="5:11">
+    <row r="64" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E64" t="s">
         <v>60</v>
       </c>
@@ -2388,7 +2417,7 @@
       </c>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="5:11">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
         <v>60</v>
       </c>
@@ -2402,7 +2431,7 @@
       </c>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="5:11">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E66" t="s">
         <v>60</v>
       </c>
@@ -2416,7 +2445,7 @@
       </c>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="5:11">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E67" t="s">
         <v>60</v>
       </c>
@@ -2430,7 +2459,7 @@
       </c>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="5:11">
+    <row r="68" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E68" t="s">
         <v>60</v>
       </c>
@@ -2444,7 +2473,7 @@
       </c>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="5:11">
+    <row r="69" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E69" t="s">
         <v>60</v>
       </c>
@@ -2458,7 +2487,7 @@
       </c>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="5:11">
+    <row r="70" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E70" t="s">
         <v>60</v>
       </c>
@@ -2472,7 +2501,7 @@
       </c>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="5:11">
+    <row r="71" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E71" t="s">
         <v>60</v>
       </c>
@@ -2486,7 +2515,7 @@
       </c>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="5:11">
+    <row r="72" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
         <v>60</v>
       </c>
@@ -2500,7 +2529,7 @@
       </c>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="5:11">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E73" t="s">
         <v>60</v>
       </c>
@@ -2514,7 +2543,7 @@
       </c>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="5:11">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
         <v>60</v>
       </c>
@@ -2528,7 +2557,7 @@
       </c>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="5:11">
+    <row r="75" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E75" t="s">
         <v>60</v>
       </c>
@@ -2542,7 +2571,7 @@
       </c>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="5:11">
+    <row r="76" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E76" t="s">
         <v>60</v>
       </c>
@@ -2556,7 +2585,7 @@
       </c>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="5:11">
+    <row r="77" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E77" t="s">
         <v>60</v>
       </c>
@@ -2570,7 +2599,7 @@
       </c>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="5:11">
+    <row r="78" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E78" t="s">
         <v>60</v>
       </c>
@@ -2584,7 +2613,7 @@
       </c>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="5:11">
+    <row r="79" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E79" t="s">
         <v>60</v>
       </c>
@@ -2598,7 +2627,7 @@
       </c>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="5:11">
+    <row r="80" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E80" t="s">
         <v>60</v>
       </c>
@@ -2612,7 +2641,7 @@
       </c>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="5:11">
+    <row r="81" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E81" t="s">
         <v>60</v>
       </c>
@@ -2626,7 +2655,7 @@
       </c>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="5:11">
+    <row r="82" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E82" t="s">
         <v>60</v>
       </c>
@@ -2640,7 +2669,7 @@
       </c>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="5:11">
+    <row r="83" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E83" t="s">
         <v>60</v>
       </c>
@@ -2654,7 +2683,7 @@
       </c>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="5:11">
+    <row r="84" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E84" t="s">
         <v>60</v>
       </c>
@@ -2668,7 +2697,7 @@
       </c>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="5:11">
+    <row r="85" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E85" t="s">
         <v>60</v>
       </c>
@@ -2682,7 +2711,7 @@
       </c>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="5:11">
+    <row r="86" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E86" t="s">
         <v>60</v>
       </c>
@@ -2696,7 +2725,7 @@
       </c>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="5:11">
+    <row r="87" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E87" t="s">
         <v>60</v>
       </c>
@@ -2710,7 +2739,7 @@
       </c>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="5:11">
+    <row r="88" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E88" t="s">
         <v>60</v>
       </c>
@@ -2724,7 +2753,7 @@
       </c>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="5:11">
+    <row r="89" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E89" t="s">
         <v>60</v>
       </c>
@@ -2738,7 +2767,7 @@
       </c>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="5:11">
+    <row r="90" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E90" t="s">
         <v>60</v>
       </c>
@@ -2752,7 +2781,7 @@
       </c>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" spans="5:11">
+    <row r="91" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E91" t="s">
         <v>60</v>
       </c>
@@ -2766,7 +2795,7 @@
       </c>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" spans="5:11">
+    <row r="92" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E92" t="s">
         <v>60</v>
       </c>
@@ -2780,7 +2809,7 @@
       </c>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="5:11">
+    <row r="93" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E93" t="s">
         <v>60</v>
       </c>
@@ -2794,7 +2823,7 @@
       </c>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="5:11">
+    <row r="94" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E94" t="s">
         <v>60</v>
       </c>
@@ -2808,7 +2837,7 @@
       </c>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="5:11">
+    <row r="95" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E95" t="s">
         <v>60</v>
       </c>
@@ -2822,7 +2851,7 @@
       </c>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="5:11">
+    <row r="96" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E96" t="s">
         <v>60</v>
       </c>
@@ -2836,7 +2865,7 @@
       </c>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="5:11">
+    <row r="97" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E97" t="s">
         <v>60</v>
       </c>
@@ -2850,7 +2879,7 @@
       </c>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="5:11">
+    <row r="98" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E98" t="s">
         <v>60</v>
       </c>
@@ -2864,7 +2893,7 @@
       </c>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" spans="5:11">
+    <row r="99" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E99" t="s">
         <v>60</v>
       </c>
@@ -2878,7 +2907,7 @@
       </c>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="5:11">
+    <row r="100" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E100" t="s">
         <v>60</v>
       </c>
@@ -2912,6 +2941,9 @@
       <formula1>"standardní,vysoká,velmi komplexní,riziková"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{4B8F0872-0551-45E0-B4D7-27D76D5E86F9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2924,15 +2956,15 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>68</v>
       </c>
@@ -2946,7 +2978,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -2960,7 +2992,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -2974,7 +3006,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -2988,7 +3020,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>77</v>
       </c>
@@ -2996,7 +3028,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>78</v>
       </c>
@@ -3004,7 +3036,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>79</v>
       </c>
@@ -3012,7 +3044,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>80</v>
       </c>
@@ -3020,7 +3052,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>81</v>
       </c>
@@ -3028,7 +3060,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>82</v>
       </c>
@@ -3036,7 +3068,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>83</v>
       </c>
@@ -3057,13 +3089,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>84</v>
       </c>
@@ -3071,7 +3103,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -3079,7 +3111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -3087,7 +3119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -3095,7 +3127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>67</v>
       </c>

--- a/docs/Naceňovací dokument.xlsx
+++ b/docs/Naceňovací dokument.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\fdolezal\fav\bp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1907C38A-A0EB-44BB-BD60-45CE5CFD09F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6453EE8-A076-4094-A6F8-3C7D842B567F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1353,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EC0B5D-2517-409C-B26E-9C4965F8D745}">
   <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
